--- a/medicine/Enfance/Chanson_pour_les_enfants_l'hiver/Chanson_pour_les_enfants_l'hiver.xlsx
+++ b/medicine/Enfance/Chanson_pour_les_enfants_l'hiver/Chanson_pour_les_enfants_l'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chanson_pour_les_enfants_l%27hiver</t>
+          <t>Chanson_pour_les_enfants_l'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chansons pour les enfants l'hiver est un poème de Jacques Prévert publié en 1946 au sein du recueil Histoires.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chanson_pour_les_enfants_l%27hiver</t>
+          <t>Chanson_pour_les_enfants_l'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Texte du poème de Jacques Prévert</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le texte de ce poème est publié aux éditions Gallimard en 1946, au sein du recueil Histoires[1],[2] et réédité en 1963[3].
-Le texte de ce poème, donné fréquemment[4] à l'apprentissage de la mémoire aux enfants des écoles maternelles et primaires de France et Belgique est le suivant[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le texte de ce poème est publié aux éditions Gallimard en 1946, au sein du recueil Histoires, et réédité en 1963.
+Le texte de ce poème, donné fréquemment à l'apprentissage de la mémoire aux enfants des écoles maternelles et primaires de France et Belgique est le suivant :
 Dans la nuit de l'hiver  
 Galope un grand homme blanc.  
 C'est un bonhomme de neige  
@@ -536,7 +550,7 @@
 Au milieu d'une flaque d'eau,  
 Ne laissant que sa pipe  
 Et puis son vieux chapeau.
-Ce poème est chanté par Germaine Montero[6] en 1956[7], œuvre reprise dans l'album Jacques Prévert... Paroles et chansons publié en 2017[8].
+Ce poème est chanté par Germaine Montero en 1956, œuvre reprise dans l'album Jacques Prévert... Paroles et chansons publié en 2017.
 </t>
         </is>
       </c>
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chanson_pour_les_enfants_l%27hiver</t>
+          <t>Chanson_pour_les_enfants_l'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,10 +579,12 @@
           <t>Texte chanté par les Frères Jacques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Frères Jacques modifient le texte, en y ajoutant des répétitions, et le chantent[9] sur une musique composée par Joseph Kosma[10] en 1949[11].
-L'enregistrement est republié en 1996[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Frères Jacques modifient le texte, en y ajoutant des répétitions, et le chantent sur une musique composée par Joseph Kosma en 1949.
+L'enregistrement est republié en 1996.
 Dans la nuit de l'hiver
 Galope un grand homme blanc
 Galope un grand homme blanc
@@ -602,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chanson_pour_les_enfants_l%27hiver</t>
+          <t>Chanson_pour_les_enfants_l'hiver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,9 +636,11 @@
           <t>Ouvrage pour enfant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, ce poème a inspiré un ouvrage pour enfants illustré par Jacqueline Duhême[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, ce poème a inspiré un ouvrage pour enfants illustré par Jacqueline Duhême.
 </t>
         </is>
       </c>
